--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/128.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/128.xlsx
@@ -479,13 +479,13 @@
         <v>-12.06891955126177</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.4642558725893</v>
+        <v>-21.51468108941466</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04673415134477548</v>
+        <v>-0.02558430763850142</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.859418368309182</v>
+        <v>-8.821088554472569</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.83952508113959</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.61627465210915</v>
+        <v>-21.66484693533195</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1731345348819945</v>
+        <v>-0.150630436273585</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.363252617413451</v>
+        <v>-8.303973409152109</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.49776366074851</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.85408572412963</v>
+        <v>-21.91103776512232</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3142703851160953</v>
+        <v>-0.2899573539669272</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.255670021306988</v>
+        <v>-8.185791446158174</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.06698607623654</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.95702376371253</v>
+        <v>-21.99344197586418</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3340073058378309</v>
+        <v>-0.3044777043616646</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.795726922288231</v>
+        <v>-7.728537300916218</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.56071135577464</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.94087048502424</v>
+        <v>-21.96754001748326</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4695843552642494</v>
+        <v>-0.4424943682146736</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.076730016412251</v>
+        <v>-6.984797131286782</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.98902781457768</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.19410637370983</v>
+        <v>-22.21792072615857</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5695498786720593</v>
+        <v>-0.5368962018079344</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.501396577320566</v>
+        <v>-6.401069267404605</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.373493236744533</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.58051880945019</v>
+        <v>-22.59902858944833</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.743510521010627</v>
+        <v>-0.7082803375276379</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.093516512427587</v>
+        <v>-5.995511480773409</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.735470356778462</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.83953839325934</v>
+        <v>-22.8413913268619</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8596293231067239</v>
+        <v>-0.8360349759669924</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.808790530512193</v>
+        <v>-5.719478153067391</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.084529096198342</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.31889084953975</v>
+        <v>-23.31563965997325</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9492985980528109</v>
+        <v>-0.9273811802684313</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.516427919870679</v>
+        <v>-5.450885893812818</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.449812403726745</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.76302290035091</v>
+        <v>-23.76310601346765</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.192658692867236</v>
+        <v>-1.168037654285453</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.17459833774972</v>
+        <v>-5.126646958399019</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.847412626751885</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.24038064182962</v>
+        <v>-24.23908016600302</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.127810905784477</v>
+        <v>-1.106959291497084</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.996609153752814</v>
+        <v>-4.961163853967681</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.289466352798997</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.85493369400769</v>
+        <v>-24.85454257345834</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.050545041259753</v>
+        <v>-1.037838512412641</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.893548888998247</v>
+        <v>-4.857820026814833</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.800964950647255</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.44744221422285</v>
+        <v>-25.43605082822294</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9591108348347093</v>
+        <v>-0.9315906151808451</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.766376042376056</v>
+        <v>-4.738655373440648</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.38148810098872</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.08767721947283</v>
+        <v>-26.08044637831666</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9197201065079755</v>
+        <v>-0.906989132626529</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.751880137015653</v>
+        <v>-4.707302172403122</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.033071962002004</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.84962405067466</v>
+        <v>-26.83257852823316</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8338006998288122</v>
+        <v>-0.8273814338125529</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.665877617219753</v>
+        <v>-4.614714160357487</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.75623139814232</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.64037935483978</v>
+        <v>-27.64115915143505</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7292003979111669</v>
+        <v>-0.7291955089043</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.687120352056498</v>
+        <v>-4.644346430977859</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.535340628662515</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.4900667477787</v>
+        <v>-28.47570529010714</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5781154187028943</v>
+        <v>-0.5818163969011489</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.907467891548355</v>
+        <v>-4.842800997719671</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.364934858793519</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.17713110530342</v>
+        <v>-29.17223232042277</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3023509863745567</v>
+        <v>-0.3034999029882817</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.140502403859855</v>
+        <v>-5.072799436766817</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.232767562384501</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.5987028339272</v>
+        <v>-29.59890328320874</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1153660297425275</v>
+        <v>-0.1226653169948315</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.458781639902885</v>
+        <v>-5.384639850766121</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.121825512229504</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.19563101635005</v>
+        <v>-30.21008047614521</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3207676058343543</v>
+        <v>0.324175243620594</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.740329767354783</v>
+        <v>-5.660819848678146</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.029031559834642</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.7356364918214</v>
+        <v>-30.74058416677072</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3419810066298982</v>
+        <v>0.3433450395457675</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.016866662768094</v>
+        <v>-5.936506056896612</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.942547533698141</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.08691407971267</v>
+        <v>-31.10098219697222</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6244580453865101</v>
+        <v>0.6178578861161749</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.314318729558067</v>
+        <v>-6.240181829428168</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.85916484248608</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.2921790330201</v>
+        <v>-31.31574160161519</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8304270156827699</v>
+        <v>0.8331453035007746</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.537012992346042</v>
+        <v>-6.457913750246225</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.786401174851251</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.58854085127875</v>
+        <v>-31.60086848209367</v>
       </c>
       <c r="F25" t="n">
-        <v>1.05306749939521</v>
+        <v>1.053478175972031</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.562465162095201</v>
+        <v>-6.488958943851135</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.724347382473125</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.49673752483525</v>
+        <v>-31.49485036818463</v>
       </c>
       <c r="F26" t="n">
-        <v>1.082499320734038</v>
+        <v>1.091451092307359</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.699484468547359</v>
+        <v>-6.60924806880471</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.683759090896658</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.58373984653544</v>
+        <v>-31.58025642914276</v>
       </c>
       <c r="F27" t="n">
-        <v>1.334537402737237</v>
+        <v>1.338766393677119</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.973156405936658</v>
+        <v>-6.901884463830772</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.673304729363586</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.40830027961963</v>
+        <v>-31.40916807833851</v>
       </c>
       <c r="F28" t="n">
-        <v>1.481188052717218</v>
+        <v>1.483456551903466</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.118961257728662</v>
+        <v>-7.036557046986811</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.696754550684485</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.21326557318122</v>
+        <v>-31.22035463313825</v>
       </c>
       <c r="F29" t="n">
-        <v>1.509382955318716</v>
+        <v>1.510238531520427</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.398353333152251</v>
+        <v>-7.313621955141747</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.766736200538345</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.08225730067194</v>
+        <v>-31.07446422372607</v>
       </c>
       <c r="F30" t="n">
-        <v>1.618926043178813</v>
+        <v>1.618016687901566</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.415147071740104</v>
+        <v>-7.341327957056555</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.884848110469615</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.81452795112937</v>
+        <v>-30.80518016999983</v>
       </c>
       <c r="F31" t="n">
-        <v>1.55546184503939</v>
+        <v>1.563313590067655</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.403237451012298</v>
+        <v>-7.333930889666912</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.051333712973593</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.41084020962477</v>
+        <v>-30.40918528080032</v>
       </c>
       <c r="F32" t="n">
-        <v>1.508830497542755</v>
+        <v>1.514746195851722</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.414917288417358</v>
+        <v>-7.360649312194602</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.269786865829445</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.90755117572395</v>
+        <v>-29.90014677482401</v>
       </c>
       <c r="F33" t="n">
-        <v>1.478895108496635</v>
+        <v>1.489049575759217</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.677882300768113</v>
+        <v>-7.622856528480985</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.527867454844772</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.30997519989123</v>
+        <v>-29.295491517048</v>
       </c>
       <c r="F34" t="n">
-        <v>1.467880176025475</v>
+        <v>1.484018787693162</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.662853493659216</v>
+        <v>-7.603564507384139</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.82210202814097</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.85892520436339</v>
+        <v>-28.85067989428234</v>
       </c>
       <c r="F35" t="n">
-        <v>1.495630179002085</v>
+        <v>1.507114456132468</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.676875165353528</v>
+        <v>-7.621727167894727</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.146329882665619</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.23397079007596</v>
+        <v>-28.22496768393054</v>
       </c>
       <c r="F36" t="n">
-        <v>1.404640872201931</v>
+        <v>1.408454297558124</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.54689113978286</v>
+        <v>-7.518427341803681</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.485075069506276</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.57258105211284</v>
+        <v>-27.5612825572434</v>
       </c>
       <c r="F37" t="n">
-        <v>1.506997119967662</v>
+        <v>1.524265092221605</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.472152891808332</v>
+        <v>-7.447003840484921</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.834386887382145</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.02765723573336</v>
+        <v>-27.03472918416636</v>
       </c>
       <c r="F38" t="n">
-        <v>1.370838278724081</v>
+        <v>1.388639152726518</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.442193057727877</v>
+        <v>-7.414594613964142</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.18313472407496</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.27445683781645</v>
+        <v>-26.29228215685322</v>
       </c>
       <c r="F39" t="n">
-        <v>1.426357840704767</v>
+        <v>1.440878191099504</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.401824528027761</v>
+        <v>-7.395180367695623</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.518605794560245</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.61345822040268</v>
+        <v>-25.63044263025834</v>
       </c>
       <c r="F40" t="n">
-        <v>1.44644676992092</v>
+        <v>1.477584854656302</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.103106208459257</v>
+        <v>-7.101448835131372</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.838700033835777</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.0585754970353</v>
+        <v>-25.08543570076213</v>
       </c>
       <c r="F41" t="n">
-        <v>1.479657793567874</v>
+        <v>1.499365380248408</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.120398625747535</v>
+        <v>-7.130425978831577</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.130870177337401</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.35249534730171</v>
+        <v>-24.37258427651786</v>
       </c>
       <c r="F42" t="n">
-        <v>1.490555389874227</v>
+        <v>1.509666517716997</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.85616736061825</v>
+        <v>-6.854910885853453</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.39098328110184</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.64979350131316</v>
+        <v>-23.66850861959971</v>
       </c>
       <c r="F43" t="n">
-        <v>1.442330226138978</v>
+        <v>1.462008478778311</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.840048304978032</v>
+        <v>-6.854363317084358</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.622252440862942</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.96551832220601</v>
+        <v>-22.98064490945224</v>
       </c>
       <c r="F44" t="n">
-        <v>1.554464487638539</v>
+        <v>1.576029896928501</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.754246234463674</v>
+        <v>-6.753312434152093</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.816479641942675</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.14346115157546</v>
+        <v>-22.16792085293064</v>
       </c>
       <c r="F45" t="n">
-        <v>1.606312405462172</v>
+        <v>1.624421286897225</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.6293907770964</v>
+        <v>-6.645773839107432</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.980075459132784</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.62979764510304</v>
+        <v>-21.66077439261181</v>
       </c>
       <c r="F46" t="n">
-        <v>1.602806987538594</v>
+        <v>1.628205378212217</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.504109976131704</v>
+        <v>-6.506222027098212</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.117553150105921</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.96106461882582</v>
+        <v>-20.9969010391603</v>
       </c>
       <c r="F47" t="n">
-        <v>1.677447455375785</v>
+        <v>1.702190719129241</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.480188065531889</v>
+        <v>-6.478780031554218</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.225772761075831</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.32256521101359</v>
+        <v>-20.35808873490859</v>
       </c>
       <c r="F48" t="n">
-        <v>1.714926582017555</v>
+        <v>1.737782689120382</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.461507170293408</v>
+        <v>-6.444772099787958</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.314855009222592</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.57164309029665</v>
+        <v>-19.61611838576498</v>
       </c>
       <c r="F49" t="n">
-        <v>1.867214256915088</v>
+        <v>1.889425015111483</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.216690151432641</v>
+        <v>-6.180931955208026</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.385181071675866</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.1846097506842</v>
+        <v>-19.23243890486323</v>
       </c>
       <c r="F50" t="n">
-        <v>1.883333312555307</v>
+        <v>1.905754298046979</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.21233404631422</v>
+        <v>-6.170831267020979</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.43471748161293</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.59753291709819</v>
+        <v>-18.64418382062229</v>
       </c>
       <c r="F51" t="n">
-        <v>1.844499931011402</v>
+        <v>1.869727206444683</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.25230167745125</v>
+        <v>-6.206701910403535</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.473175050792246</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.0817964717142</v>
+        <v>-18.11311544970365</v>
       </c>
       <c r="F52" t="n">
-        <v>1.858785609076527</v>
+        <v>1.894035348586984</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.276981384115436</v>
+        <v>-6.228511770036842</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.494623346576187</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.68565491230868</v>
+        <v>-17.72640478454441</v>
       </c>
       <c r="F53" t="n">
-        <v>1.953236332738457</v>
+        <v>1.989859883178517</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.185552066697261</v>
+        <v>-6.124512815963827</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.502024518503122</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.06339189630148</v>
+        <v>-17.10727073293204</v>
       </c>
       <c r="F54" t="n">
-        <v>2.011699076853026</v>
+        <v>2.048342183320553</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.172865093877616</v>
+        <v>-6.113991673186226</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.505158549861985</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.81888288487333</v>
+        <v>-16.85498331157862</v>
       </c>
       <c r="F55" t="n">
-        <v>1.974200394183788</v>
+        <v>1.996895164060007</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.408808565274931</v>
+        <v>-6.346111941213614</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.498190973652736</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.26738335425785</v>
+        <v>-16.31650809525661</v>
       </c>
       <c r="F56" t="n">
-        <v>1.99977478910462</v>
+        <v>2.030331082022839</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.283640211468175</v>
+        <v>-6.213654078168287</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.490569526050935</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.16977922116676</v>
+        <v>-16.21671368708915</v>
       </c>
       <c r="F57" t="n">
-        <v>2.041957140352363</v>
+        <v>2.070592053571883</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.445979684484086</v>
+        <v>-6.364792836452096</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.48828520401478</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.9191980632099</v>
+        <v>-15.95561627536155</v>
       </c>
       <c r="F58" t="n">
-        <v>1.910565080804023</v>
+        <v>1.940842700330828</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.603156366248534</v>
+        <v>-6.531713308902306</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.488115163167292</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.65017068234418</v>
+        <v>-15.67931894128472</v>
       </c>
       <c r="F59" t="n">
-        <v>1.97489463315889</v>
+        <v>2.003343764117468</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.390108114008981</v>
+        <v>-6.329870660401722</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.502501185073287</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.39733569222167</v>
+        <v>-15.41400720563785</v>
       </c>
       <c r="F60" t="n">
-        <v>2.047168821672494</v>
+        <v>2.070039595795922</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.434099397797483</v>
+        <v>-6.360065166811789</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.530410382766076</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.24441244643143</v>
+        <v>-15.26502449938235</v>
       </c>
       <c r="F61" t="n">
-        <v>1.983504174251527</v>
+        <v>2.005617152310584</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.277597398980668</v>
+        <v>-6.204423633203552</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.570024696225238</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.19070670599837</v>
+        <v>-15.21182232665658</v>
       </c>
       <c r="F62" t="n">
-        <v>1.997814297350987</v>
+        <v>2.031700003945575</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.36473905737656</v>
+        <v>-6.287776311277585</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.6328565718152</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.10562820850032</v>
+        <v>-15.11124078838354</v>
       </c>
       <c r="F63" t="n">
-        <v>1.968025578510875</v>
+        <v>1.995682690357012</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.422624898680833</v>
+        <v>-6.351729410103699</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.709111486014875</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.15184399041327</v>
+        <v>-15.16694613262517</v>
       </c>
       <c r="F64" t="n">
-        <v>1.815953019915485</v>
+        <v>1.847071548623399</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.412133089944433</v>
+        <v>-6.337321506866901</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.800371418361891</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.16535231638655</v>
+        <v>-15.16382694624408</v>
       </c>
       <c r="F65" t="n">
-        <v>1.816124135155827</v>
+        <v>1.852224561861127</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.510930140711051</v>
+        <v>-6.42933261610224</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.90900148112738</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.16495141782347</v>
+        <v>-15.16160244811963</v>
       </c>
       <c r="F66" t="n">
-        <v>1.879593222302117</v>
+        <v>1.907255223155122</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.441838695667808</v>
+        <v>-6.343916777130369</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.020164279046627</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.02668052561338</v>
+        <v>-15.02173285066406</v>
       </c>
       <c r="F67" t="n">
-        <v>1.694290084032307</v>
+        <v>1.715635488013257</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.227040178969901</v>
+        <v>-6.140978991091597</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.134377714641007</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.13753386731381</v>
+        <v>-15.12890965920057</v>
       </c>
       <c r="F68" t="n">
-        <v>1.660903056138145</v>
+        <v>1.681270658745712</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.353201001170641</v>
+        <v>-6.262426810672631</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.245169740218959</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.04403161098406</v>
+        <v>-15.02992193716614</v>
       </c>
       <c r="F69" t="n">
-        <v>1.645620020672168</v>
+        <v>1.67596608629511</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.150013875781656</v>
+        <v>-6.028727393427229</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.339484922254693</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.07873378172542</v>
+        <v>-15.06373430865773</v>
       </c>
       <c r="F70" t="n">
-        <v>1.534991573287617</v>
+        <v>1.551795089889204</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.119804702350988</v>
+        <v>-6.006956645848857</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.419800519580315</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.09057006735022</v>
+        <v>-15.07936446361125</v>
       </c>
       <c r="F71" t="n">
-        <v>1.432268650006867</v>
+        <v>1.455677214885656</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.107210620661815</v>
+        <v>-5.970186425202789</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.474714168149928</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.20413680786179</v>
+        <v>-15.19090226627305</v>
       </c>
       <c r="F72" t="n">
-        <v>1.353404080236662</v>
+        <v>1.37337567328801</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.963410261685246</v>
+        <v>-5.826874966912912</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.495269851928285</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.31560616442745</v>
+        <v>-15.31289765462318</v>
       </c>
       <c r="F73" t="n">
-        <v>1.279355182230368</v>
+        <v>1.29481911095042</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.106887946208599</v>
+        <v>-5.979524428318597</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.484912446168156</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.4524054655706</v>
+        <v>-15.45582288137057</v>
       </c>
       <c r="F74" t="n">
-        <v>1.159036723235591</v>
+        <v>1.182181281743567</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.010129611305485</v>
+        <v>-5.881490062623219</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.42960287116721</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.68898450786061</v>
+        <v>-15.68070253022806</v>
       </c>
       <c r="F75" t="n">
-        <v>1.085882513485943</v>
+        <v>1.095430743897028</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.042401945633991</v>
+        <v>-5.909948971595531</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.326666344820108</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.70722050347421</v>
+        <v>-15.70289862140385</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9000953635363079</v>
+        <v>0.913716136667533</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.150170324001397</v>
+        <v>-6.015380404680552</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.176990231931436</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.78075116675261</v>
+        <v>-15.7800129267157</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7424004470439663</v>
+        <v>0.7541976206138321</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.068616800454389</v>
+        <v>-5.929563667145594</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.971158484229218</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.93691093508874</v>
+        <v>-15.93354240935743</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7572972509674561</v>
+        <v>0.7710060262222856</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.041922822961033</v>
+        <v>-5.907739140491685</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.715216657153711</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.04739760127415</v>
+        <v>-16.04028898528965</v>
       </c>
       <c r="F79" t="n">
-        <v>0.479953669421105</v>
+        <v>0.4903183639789647</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.055880937566075</v>
+        <v>-5.925305342164511</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.411935257081758</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.54460471063253</v>
+        <v>-16.54317712062739</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4690462951010177</v>
+        <v>0.4759495727971016</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.991629609321079</v>
+        <v>-5.865507899175274</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.060431965426446</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.05015246570587</v>
+        <v>-17.0567086239144</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2930322698783457</v>
+        <v>0.3063205905426206</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.069482154669832</v>
+        <v>-5.933777991064874</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.676849462168785</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.47678676094034</v>
+        <v>-17.47928504344933</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.02008906392008901</v>
+        <v>-0.008717233947644844</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.1101978038575</v>
+        <v>-5.969707302529832</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.267729082520879</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.98589371301279</v>
+        <v>-17.9873701930866</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.02605365229772525</v>
+        <v>-0.01608985630295259</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.13455483606847</v>
+        <v>-5.995188806320193</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.841720262711593</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.763255582866</v>
+        <v>-18.7802351037148</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1167593966995983</v>
+        <v>-0.1045857696009801</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.128228461182682</v>
+        <v>-5.990402468597483</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.420965766396492</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.45227798764093</v>
+        <v>-19.45469315703318</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.2808589121875985</v>
+        <v>-0.2755201166889274</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.215932355368269</v>
+        <v>-6.080619312312665</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.011570645217398</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.12348974039968</v>
+        <v>-20.13551180828542</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.41689063925264</v>
+        <v>-0.3969728252768285</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.452887851187037</v>
+        <v>-6.309977291460245</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.62960180987205</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.87433852601361</v>
+        <v>-20.87737948828483</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5117813735325922</v>
+        <v>-0.4980725982777627</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.781375333568185</v>
+        <v>-6.648624130110844</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.291608038428471</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.70738129507411</v>
+        <v>-21.70668216709215</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6272939387771918</v>
+        <v>-0.6157461045575386</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.032191163854655</v>
+        <v>-6.896575002373302</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.00288672270351</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.70619073096424</v>
+        <v>-22.70147283933767</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8526184872595679</v>
+        <v>-0.8431778149995551</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.089822776801849</v>
+        <v>-6.938654684476838</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.781168460126779</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.79358897128286</v>
+        <v>-23.78073577222974</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.115647056699592</v>
+        <v>-1.112254085933953</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.470207067075299</v>
+        <v>-7.33223929329096</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.633424191082707</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.02853743884497</v>
+        <v>-25.01679404435065</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.06853658653</v>
+        <v>-1.080289759038063</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.82905528209999</v>
+        <v>-7.68845722262125</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.560784693011551</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.2873638159451</v>
+        <v>-26.25573194151616</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.295083386729105</v>
+        <v>-1.307433018074932</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.136466255877869</v>
+        <v>-8.010491215938071</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.574066695754173</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.57317506644717</v>
+        <v>-27.5449092732461</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.560248452169971</v>
+        <v>-1.569733125491785</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.459414493478802</v>
+        <v>-8.343613476829054</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.663582183898893</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.07192456653428</v>
+        <v>-29.0356579135955</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.826484210114691</v>
+        <v>-1.853510640074997</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.789158450624747</v>
+        <v>-8.67703396713892</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.823734756566799</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.68606685119775</v>
+        <v>-30.64006129658008</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.092304402475724</v>
+        <v>-2.126703454791337</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.099282823213763</v>
+        <v>-8.99513719893474</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.050002313160472</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.52347541245263</v>
+        <v>-32.46590980109814</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.125163417628259</v>
+        <v>-2.173545029583249</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.461778237361171</v>
+        <v>-9.363108300773094</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.318429750743621</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.24505117851312</v>
+        <v>-34.17196541485961</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.480281320413493</v>
+        <v>-2.535390205817358</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.854624606138389</v>
+        <v>-9.777881865348425</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.619580004304887</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.23459829995609</v>
+        <v>-36.15899225326269</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.870228508118629</v>
+        <v>-2.924682266602328</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.32093319209787</v>
+        <v>-10.23787385443585</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.926858433216052</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.28549512406855</v>
+        <v>-38.21729347827508</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.137202506100254</v>
+        <v>-3.190707797251771</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.67920939331913</v>
+        <v>-10.60744855052655</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.224414538339998</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.49148346851671</v>
+        <v>-40.42030441754129</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.500729500696582</v>
+        <v>-3.556561959116751</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.83995016108956</v>
+        <v>-10.75795173791766</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.481409828835358</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.39990729901696</v>
+        <v>-42.32550883701968</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.946284252506009</v>
+        <v>-4.006076806488378</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.12073071446335</v>
+        <v>-11.04386574850172</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.701471116065361</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.63200049563101</v>
+        <v>-44.54440660409993</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.173989747332572</v>
+        <v>-4.232716497817955</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.25228900024517</v>
+        <v>-11.18917681060016</v>
       </c>
     </row>
   </sheetData>
